--- a/teaching/traditional_assets/database/data/norway/norway_telecom_wireless.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_telecom_wireless.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.2255717255717256</v>
+        <v>-0.14233907524932</v>
       </c>
       <c r="H2">
-        <v>-0.2255717255717256</v>
+        <v>-0.14233907524932</v>
       </c>
       <c r="I2">
-        <v>-0.4612309588711425</v>
+        <v>-0.242973708068903</v>
       </c>
       <c r="J2">
-        <v>-0.4612309588711425</v>
+        <v>-0.242973708068903</v>
       </c>
       <c r="K2">
-        <v>-132.5</v>
+        <v>-113.6</v>
       </c>
       <c r="L2">
-        <v>-0.6886694386694386</v>
+        <v>-0.514959202175884</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>99.3</v>
+        <v>119.9</v>
       </c>
       <c r="V2">
-        <v>0.2206176405243279</v>
+        <v>0.3305762338020403</v>
       </c>
       <c r="W2">
-        <v>1.792963464140731</v>
+        <v>1.627507163323782</v>
       </c>
       <c r="X2">
-        <v>0.08196180403029814</v>
+        <v>0.08765733785408866</v>
       </c>
       <c r="Y2">
-        <v>1.711001660110433</v>
+        <v>1.539849825469694</v>
       </c>
       <c r="Z2">
-        <v>0.6402573117005852</v>
+        <v>0.5668036998972251</v>
       </c>
       <c r="AA2">
-        <v>-0.2953064937999209</v>
+        <v>-0.1377183967112025</v>
       </c>
       <c r="AB2">
-        <v>0.05281680056942976</v>
+        <v>0.04195107328433252</v>
       </c>
       <c r="AC2">
-        <v>-0.3481232943693506</v>
+        <v>-0.179669469995535</v>
       </c>
       <c r="AD2">
-        <v>558.3</v>
+        <v>759.5</v>
       </c>
       <c r="AE2">
-        <v>7.704182434039005</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>566.004182434039</v>
+        <v>759.5</v>
       </c>
       <c r="AG2">
-        <v>466.704182434039</v>
+        <v>639.6</v>
       </c>
       <c r="AH2">
-        <v>0.5570336115320355</v>
+        <v>0.6767955801104972</v>
       </c>
       <c r="AI2">
-        <v>1.140667899366766</v>
+        <v>1.303862660944206</v>
       </c>
       <c r="AJ2">
-        <v>0.5090554683061961</v>
+        <v>0.6381322957198444</v>
       </c>
       <c r="AK2">
-        <v>1.175861084587084</v>
+        <v>1.382619974059663</v>
       </c>
       <c r="AL2">
-        <v>47.9</v>
+        <v>56.9</v>
       </c>
       <c r="AM2">
-        <v>47.751</v>
+        <v>56.58</v>
       </c>
       <c r="AN2">
-        <v>-12.86405529953917</v>
+        <v>-59.3359375</v>
       </c>
       <c r="AO2">
-        <v>-1.853862212943633</v>
+        <v>-0.9420035149384887</v>
       </c>
       <c r="AP2">
-        <v>-10.75355259064606</v>
+        <v>-49.96875</v>
       </c>
       <c r="AQ2">
-        <v>-1.859646918389144</v>
+        <v>-0.9473312124425592</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ice Group ASA (OB:ICE)</t>
+          <t>Ice Group ASA (OB:ICEGR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.2255717255717256</v>
+        <v>-0.14233907524932</v>
       </c>
       <c r="H3">
-        <v>-0.2255717255717256</v>
+        <v>-0.14233907524932</v>
       </c>
       <c r="I3">
-        <v>-0.4612309588711425</v>
+        <v>-0.242973708068903</v>
       </c>
       <c r="J3">
-        <v>-0.4612309588711425</v>
+        <v>-0.242973708068903</v>
       </c>
       <c r="K3">
-        <v>-132.5</v>
+        <v>-113.6</v>
       </c>
       <c r="L3">
-        <v>-0.6886694386694386</v>
+        <v>-0.514959202175884</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>99.3</v>
+        <v>119.9</v>
       </c>
       <c r="V3">
-        <v>0.2206176405243279</v>
+        <v>0.3305762338020403</v>
       </c>
       <c r="W3">
-        <v>1.792963464140731</v>
+        <v>1.627507163323782</v>
       </c>
       <c r="X3">
-        <v>0.08196180403029814</v>
+        <v>0.08765733785408866</v>
       </c>
       <c r="Y3">
-        <v>1.711001660110433</v>
+        <v>1.539849825469694</v>
       </c>
       <c r="Z3">
-        <v>0.6402573117005852</v>
+        <v>0.5668036998972251</v>
       </c>
       <c r="AA3">
-        <v>-0.2953064937999209</v>
+        <v>-0.1377183967112025</v>
       </c>
       <c r="AB3">
-        <v>0.05281680056942976</v>
+        <v>0.04195107328433252</v>
       </c>
       <c r="AC3">
-        <v>-0.3481232943693506</v>
+        <v>-0.179669469995535</v>
       </c>
       <c r="AD3">
-        <v>558.3</v>
+        <v>759.5</v>
       </c>
       <c r="AE3">
-        <v>7.704182434039005</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>566.004182434039</v>
+        <v>759.5</v>
       </c>
       <c r="AG3">
-        <v>466.704182434039</v>
+        <v>639.6</v>
       </c>
       <c r="AH3">
-        <v>0.5570336115320355</v>
+        <v>0.6767955801104972</v>
       </c>
       <c r="AI3">
-        <v>1.140667899366766</v>
+        <v>1.303862660944206</v>
       </c>
       <c r="AJ3">
-        <v>0.5090554683061961</v>
+        <v>0.6381322957198444</v>
       </c>
       <c r="AK3">
-        <v>1.175861084587084</v>
+        <v>1.382619974059663</v>
       </c>
       <c r="AL3">
-        <v>47.9</v>
+        <v>56.9</v>
       </c>
       <c r="AM3">
-        <v>47.751</v>
+        <v>56.58</v>
       </c>
       <c r="AN3">
-        <v>-12.86405529953917</v>
+        <v>-59.3359375</v>
       </c>
       <c r="AO3">
-        <v>-1.853862212943633</v>
+        <v>-0.9420035149384887</v>
       </c>
       <c r="AP3">
-        <v>-10.75355259064606</v>
+        <v>-49.96875</v>
       </c>
       <c r="AQ3">
-        <v>-1.859646918389144</v>
+        <v>-0.9473312124425592</v>
       </c>
     </row>
   </sheetData>
